--- a/临储拍卖情况.xlsx
+++ b/临储拍卖情况.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>地区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,102 @@
   </si>
   <si>
     <t>二、三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼和浩特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼伦贝尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌兰浩特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁岭建平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舒兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牡丹江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">肇东 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嫩江</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -97,12 +193,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -117,11 +219,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -145,14 +248,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>65809</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>37945</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9370</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -169,7 +272,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="0" y="657225"/>
           <a:ext cx="6923809" cy="1238095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -469,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -612,6 +715,232 @@
       </c>
       <c r="E8">
         <v>1630</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1780</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1810</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>2015</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>1600</v>
+      </c>
+      <c r="E10">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>2015</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>1620</v>
+      </c>
+      <c r="E11">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>2015</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>1820</v>
+      </c>
+      <c r="E12">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>2015</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>1780</v>
+      </c>
+      <c r="E13">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>2015</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>1690</v>
+      </c>
+      <c r="E14">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>2015</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>1750</v>
+      </c>
+      <c r="E15">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>2015</v>
+      </c>
+      <c r="E16">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>2015</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>1690</v>
+      </c>
+      <c r="E17">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18">
+        <v>2015</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>2015</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>1650</v>
+      </c>
+      <c r="E19">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>2015</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20">
+        <v>1660</v>
+      </c>
+      <c r="E20">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21">
+        <v>2015</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21">
+        <v>1730</v>
+      </c>
+      <c r="E21">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>1640</v>
       </c>
     </row>
   </sheetData>
@@ -627,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/临储拍卖情况.xlsx
+++ b/临储拍卖情况.xlsx
@@ -2,20 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="182">
   <si>
     <t>地区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +172,489 @@
   </si>
   <si>
     <t>嫩江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼伦贝尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌兰浩特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公主岭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延吉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈尔滨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海伦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绥化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二三等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼伦贝尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宾县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐齐哈尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二等</t>
+  </si>
+  <si>
+    <t>二等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通辽、赤峰、鄂尔多斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份</t>
+  </si>
+  <si>
+    <t>品种</t>
+  </si>
+  <si>
+    <t>年度</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>交易数量</t>
+  </si>
+  <si>
+    <t>成交数量</t>
+  </si>
+  <si>
+    <t>最高价</t>
+  </si>
+  <si>
+    <t>最低价</t>
+  </si>
+  <si>
+    <t>平均价</t>
+  </si>
+  <si>
+    <t>成交比率</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>玉米</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>430628吨</t>
+  </si>
+  <si>
+    <t>73355吨</t>
+  </si>
+  <si>
+    <t>1800元/吨</t>
+  </si>
+  <si>
+    <t>1740元/吨</t>
+  </si>
+  <si>
+    <t>1761.73元/吨</t>
+  </si>
+  <si>
+    <t>内蒙古自治区</t>
+  </si>
+  <si>
+    <t>一等</t>
+  </si>
+  <si>
+    <t>86303吨</t>
+  </si>
+  <si>
+    <t>30794吨</t>
+  </si>
+  <si>
+    <t>1780元/吨</t>
+  </si>
+  <si>
+    <t>1784.32元/吨</t>
+  </si>
+  <si>
+    <t>344325吨</t>
+  </si>
+  <si>
+    <t>42561吨</t>
+  </si>
+  <si>
+    <t>1760元/吨</t>
+  </si>
+  <si>
+    <t>1745.38元/吨</t>
+  </si>
+  <si>
+    <t>小计</t>
+  </si>
+  <si>
+    <t>呼伦贝尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三等</t>
+  </si>
+  <si>
+    <t>三等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌兰浩特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公主岭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">三等 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肇东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3981395吨</t>
+  </si>
+  <si>
+    <t>1336720吨</t>
+  </si>
+  <si>
+    <t>1570元/吨</t>
+  </si>
+  <si>
+    <t>1666.74元/吨</t>
+  </si>
+  <si>
+    <t>黑龙江省</t>
+  </si>
+  <si>
+    <t>43786吨</t>
+  </si>
+  <si>
+    <t>0吨</t>
+  </si>
+  <si>
+    <t>73093吨</t>
+  </si>
+  <si>
+    <t>1吨</t>
+  </si>
+  <si>
+    <t>220870吨</t>
+  </si>
+  <si>
+    <t>1050189吨</t>
+  </si>
+  <si>
+    <t>146610吨</t>
+  </si>
+  <si>
+    <t>1710元/吨</t>
+  </si>
+  <si>
+    <t>1640元/吨</t>
+  </si>
+  <si>
+    <t>1648.1元/吨</t>
+  </si>
+  <si>
+    <t>714026吨</t>
+  </si>
+  <si>
+    <t>395990吨</t>
+  </si>
+  <si>
+    <t>1600元/吨</t>
+  </si>
+  <si>
+    <t>1626.43元/吨</t>
+  </si>
+  <si>
+    <t>四等</t>
+  </si>
+  <si>
+    <t>67562吨</t>
+  </si>
+  <si>
+    <t>1600.25元/吨</t>
+  </si>
+  <si>
+    <t>2169527吨</t>
+  </si>
+  <si>
+    <t>610162吨</t>
+  </si>
+  <si>
+    <t>1628.74元/吨</t>
+  </si>
+  <si>
+    <t>吉林省</t>
+  </si>
+  <si>
+    <t>326513吨</t>
+  </si>
+  <si>
+    <t>161051吨</t>
+  </si>
+  <si>
+    <t>1730元/吨</t>
+  </si>
+  <si>
+    <t>1733.68元/吨</t>
+  </si>
+  <si>
+    <t>546793吨</t>
+  </si>
+  <si>
+    <t>243376吨</t>
+  </si>
+  <si>
+    <t>1690元/吨</t>
+  </si>
+  <si>
+    <t>1698.49元/吨</t>
+  </si>
+  <si>
+    <t>65838吨</t>
+  </si>
+  <si>
+    <t>59732吨</t>
+  </si>
+  <si>
+    <t>1650元/吨</t>
+  </si>
+  <si>
+    <t>1660.47元/吨</t>
+  </si>
+  <si>
+    <t>939144吨</t>
+  </si>
+  <si>
+    <t>464159吨</t>
+  </si>
+  <si>
+    <t>1705.81元/吨</t>
+  </si>
+  <si>
+    <t>辽宁省</t>
+  </si>
+  <si>
+    <t>200717吨</t>
+  </si>
+  <si>
+    <t>35145吨</t>
+  </si>
+  <si>
+    <t>10000吨</t>
+  </si>
+  <si>
+    <t>5000吨</t>
+  </si>
+  <si>
+    <t>210717吨</t>
+  </si>
+  <si>
+    <t>40145吨</t>
+  </si>
+  <si>
+    <t>1775.02元/吨</t>
+  </si>
+  <si>
+    <t>438726吨</t>
+  </si>
+  <si>
+    <t>105388吨</t>
+  </si>
+  <si>
+    <t>1685.37元/吨</t>
+  </si>
+  <si>
+    <t>136978吨</t>
+  </si>
+  <si>
+    <t>86072吨</t>
+  </si>
+  <si>
+    <t>1610.15元/吨</t>
+  </si>
+  <si>
+    <t>662007吨</t>
+  </si>
+  <si>
+    <t>222254吨</t>
+  </si>
+  <si>
+    <t>1669.95元/吨</t>
+  </si>
+  <si>
+    <t>赤峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通辽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榆树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扶余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -177,7 +662,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +674,14 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -207,7 +700,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -215,16 +708,125 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -572,380 +1174,846 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="11">
         <v>2014</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11">
         <v>1630</v>
       </c>
-      <c r="E2">
+      <c r="F2" s="11">
         <v>1640</v>
       </c>
-      <c r="F2">
+      <c r="G2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="C3" s="5">
         <v>2014</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5">
         <v>1630</v>
       </c>
-      <c r="E3">
+      <c r="F3" s="5">
         <v>1640</v>
       </c>
-      <c r="F3">
+      <c r="G3" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="C4" s="5">
         <v>2014</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5">
         <v>1630</v>
       </c>
-      <c r="E4">
+      <c r="F4" s="5">
         <v>1640</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="C5" s="5">
         <v>2014</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5">
+      <c r="E5" s="5">
         <v>1650</v>
       </c>
-      <c r="E5">
+      <c r="F5" s="5">
         <v>1720</v>
       </c>
-      <c r="F5">
+      <c r="G5" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="C6" s="5">
         <v>2014</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6">
+      <c r="E6" s="5">
         <v>1700</v>
       </c>
-      <c r="E6">
+      <c r="F6" s="5">
         <v>1750</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
+      <c r="C7" s="5">
         <v>2014</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D7">
+      <c r="E7" s="5">
         <v>1620</v>
       </c>
-      <c r="E7">
+      <c r="F7" s="5">
         <v>1640</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
+      <c r="C8" s="8">
         <v>2014</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D8">
+      <c r="E8" s="8">
         <v>1590</v>
       </c>
-      <c r="E8">
+      <c r="F8" s="8">
         <v>1630</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2">
+      <c r="C9" s="2">
         <v>2015</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>1780</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>1810</v>
       </c>
-      <c r="F9">
+      <c r="G9" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B10">
+      <c r="C10" s="5">
         <v>2015</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D10">
+      <c r="E10" s="5">
         <v>1600</v>
       </c>
-      <c r="E10">
+      <c r="F10" s="5">
         <v>1660</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B11">
+      <c r="C11" s="5">
         <v>2015</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D11">
+      <c r="E11" s="5">
         <v>1620</v>
       </c>
-      <c r="E11">
+      <c r="F11" s="5">
         <v>1660</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B12">
+      <c r="C12" s="5">
         <v>2015</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D12">
+      <c r="E12" s="5">
         <v>1820</v>
       </c>
-      <c r="E12">
+      <c r="F12" s="5">
         <v>1830</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B13">
+      <c r="C13" s="5">
         <v>2015</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D13">
+      <c r="E13" s="5">
         <v>1780</v>
       </c>
-      <c r="E13">
+      <c r="F13" s="5">
         <v>1800</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B14">
+      <c r="C14" s="5">
         <v>2015</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D14">
+      <c r="E14" s="5">
         <v>1690</v>
       </c>
-      <c r="E14">
+      <c r="F14" s="5">
         <v>1730</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B15">
+      <c r="C15" s="5">
         <v>2015</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D15">
+      <c r="E15" s="5">
         <v>1750</v>
       </c>
-      <c r="E15">
+      <c r="F15" s="5">
         <v>1760</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B16">
+      <c r="C16" s="5">
         <v>2015</v>
       </c>
-      <c r="E16">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5">
         <v>1780</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B17">
+      <c r="C17" s="5">
         <v>2015</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D17">
+      <c r="E17" s="5">
         <v>1690</v>
       </c>
-      <c r="E17">
+      <c r="F17" s="5">
         <v>1750</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B18">
+      <c r="C18" s="5">
         <v>2015</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D18">
+      <c r="E18" s="5">
         <v>1730</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B19">
+      <c r="C19" s="5">
         <v>2015</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D19">
+      <c r="E19" s="5">
         <v>1650</v>
       </c>
-      <c r="E19">
+      <c r="F19" s="5">
         <v>1670</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B20">
+      <c r="C20" s="5">
         <v>2015</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D20">
+      <c r="E20" s="5">
         <v>1660</v>
       </c>
-      <c r="E20">
+      <c r="F20" s="5">
         <v>1670</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B21">
+      <c r="C21" s="5">
         <v>2015</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D21">
+      <c r="E21" s="5">
         <v>1730</v>
       </c>
-      <c r="E21">
+      <c r="F21" s="5">
         <v>1760</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D22">
+      <c r="E22" s="5">
         <v>1640</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B23" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="15">
+        <v>2015</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="15">
+        <v>1600</v>
+      </c>
+      <c r="F23" s="15">
+        <v>1630</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B24" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="13">
+        <v>1600</v>
+      </c>
+      <c r="F24" s="13">
+        <v>1620</v>
+      </c>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="13">
+        <v>1750</v>
+      </c>
+      <c r="F25" s="13">
+        <v>1770</v>
+      </c>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="13">
+        <v>1690</v>
+      </c>
+      <c r="F26" s="13">
+        <v>1710</v>
+      </c>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B27" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="13">
+        <v>1730</v>
+      </c>
+      <c r="F27" s="13">
+        <v>1730</v>
+      </c>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B28" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="13">
+        <v>1620</v>
+      </c>
+      <c r="F28" s="13">
+        <v>1670</v>
+      </c>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B29" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="13">
+        <v>1600</v>
+      </c>
+      <c r="F29" s="13">
+        <v>1620</v>
+      </c>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B30" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1630</v>
+      </c>
+      <c r="F30" s="17">
+        <v>1650</v>
+      </c>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B31" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="13">
+        <v>1600</v>
+      </c>
+      <c r="F31" s="13">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B32" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="13">
+        <v>1700</v>
+      </c>
+      <c r="F32" s="13">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B33" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="13">
+        <v>1740</v>
+      </c>
+      <c r="F33" s="13">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B34" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="13">
+        <v>1640</v>
+      </c>
+      <c r="F34" s="13">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D35" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="13">
+        <v>1710</v>
+      </c>
+      <c r="F35" s="13">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="13">
+        <v>1630</v>
+      </c>
+      <c r="F36" s="13">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="13">
+        <v>1660</v>
+      </c>
+      <c r="F37" s="13">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="18">
+        <v>43643</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="15">
+        <v>1740</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="13">
+        <v>1600</v>
+      </c>
+      <c r="F39" s="13">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="13">
+        <v>1650</v>
+      </c>
+      <c r="F40" s="13">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B41" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="13">
+        <v>1690</v>
+      </c>
+      <c r="F41" s="13">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B42" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="13">
+        <v>1740</v>
+      </c>
+      <c r="F42" s="13">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B43" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" s="13">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B44" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" s="13">
+        <v>1690</v>
+      </c>
+      <c r="F44">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B45" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" s="13">
+        <v>1600</v>
+      </c>
+      <c r="F45">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B46" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" s="13">
+        <v>1640</v>
+      </c>
+      <c r="F46">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="18">
+        <v>43664</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E47" s="15">
+        <v>1780</v>
+      </c>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B48" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D48" t="s">
+        <v>172</v>
+      </c>
+      <c r="E48" s="13">
+        <v>1740</v>
+      </c>
+      <c r="F48">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B49" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D49" t="s">
+        <v>174</v>
+      </c>
+      <c r="E49" s="13">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B50" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" t="s">
+        <v>176</v>
+      </c>
+      <c r="E50" s="13">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B51" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51" t="s">
+        <v>178</v>
+      </c>
+      <c r="E51" s="13">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B52" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D52" t="s">
+        <v>176</v>
+      </c>
+      <c r="E52" s="13">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B53" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D53" t="s">
+        <v>181</v>
+      </c>
+      <c r="E53" s="13">
+        <v>1640</v>
+      </c>
+      <c r="F53">
+        <v>1700</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -957,7 +2025,24 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -967,4 +2052,865 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="20">
+        <v>17.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="20">
+        <v>2015</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="20">
+        <v>35.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="20">
+        <v>2015</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" s="20">
+        <v>12.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="22"/>
+      <c r="B5" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="20">
+        <v>17.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" s="20">
+        <v>33.57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="20">
+        <v>2014</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="22"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="20">
+        <v>2014</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="22"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="20">
+        <v>2014</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="22"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="20">
+        <v>2015</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A15" s="22"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="20">
+        <v>2015</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" s="20">
+        <v>13.96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" s="22"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="20">
+        <v>2015</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="K16" s="20">
+        <v>55.46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="22"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="20">
+        <v>2015</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="K17" s="20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" s="22"/>
+      <c r="B18" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="K18" s="20">
+        <v>28.12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="20">
+        <v>2015</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="K19" s="20">
+        <v>49.33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="22"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="20">
+        <v>2015</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" s="20">
+        <v>44.51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A21" s="22"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="20">
+        <v>2015</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="K21" s="20">
+        <v>90.73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="22"/>
+      <c r="B22" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="20">
+        <v>49.42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="20">
+        <v>2015</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="K23" s="20">
+        <v>17.510000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="22"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="20">
+        <v>2015</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24" s="20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" s="22"/>
+      <c r="B25" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="K25" s="20">
+        <v>19.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="20">
+        <v>2015</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="K26" s="20">
+        <v>35.68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" s="22"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="20">
+        <v>2015</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="K27" s="20">
+        <v>24.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A28" s="22"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="20">
+        <v>2015</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="K28" s="20">
+        <v>62.84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A29" s="22"/>
+      <c r="B29" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="I29" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="K29" s="20">
+        <v>33.57</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:A18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>